--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022666.56051729</v>
+        <v>2126846.194968362</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>24.56600065598671</v>
+        <v>52.90622424463611</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -823,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>130.496484565886</v>
       </c>
       <c r="G4" t="n">
-        <v>89.88441017723306</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.7327776912344</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>280.2364984178486</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>45.41839567467409</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>90.52240030468867</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.1842403900294</v>
+        <v>382.6924535728259</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>7.473231026012878</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>45.71978120500688</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>22.04658882052576</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>108.3106907504111</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>37.19933342822802</v>
+        <v>160.9888698962426</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>20.22544352992953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>70.58974991479204</v>
       </c>
       <c r="F22" t="n">
-        <v>12.74007641194018</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.36618625358919</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>54.32649042089646</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2606,13 +2608,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>107.1685137621111</v>
+        <v>111.5361117049702</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3001,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.640152769375668</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>177.1513727793237</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>106.365256562042</v>
+        <v>80.07147829118256</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>13.94435783112377</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>124.8808320771207</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3715,19 +3717,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>54.10799870228521</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>132.2740511637367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>107.7122866515517</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1537.086630593157</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.124113652745</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U2" t="n">
-        <v>2984.523263443733</v>
+        <v>3066.187443443257</v>
       </c>
       <c r="V2" t="n">
-        <v>2653.460376100163</v>
+        <v>2735.124556099686</v>
       </c>
       <c r="W2" t="n">
-        <v>2300.691720830048</v>
+        <v>2382.355900829572</v>
       </c>
       <c r="X2" t="n">
-        <v>1927.225962568968</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y2" t="n">
-        <v>1537.086630593157</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080139</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986313</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962573</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>699.5498076188339</v>
+        <v>759.6890873082294</v>
       </c>
       <c r="C4" t="n">
-        <v>699.5498076188339</v>
+        <v>759.6890873082294</v>
       </c>
       <c r="D4" t="n">
-        <v>549.4331682064982</v>
+        <v>609.5724478958937</v>
       </c>
       <c r="E4" t="n">
-        <v>401.5200746241051</v>
+        <v>609.5724478958937</v>
       </c>
       <c r="F4" t="n">
-        <v>254.6301271261947</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.990851592604</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="X4" t="n">
-        <v>1101.990851592604</v>
+        <v>941.3375521384692</v>
       </c>
       <c r="Y4" t="n">
-        <v>881.1982724490737</v>
+        <v>941.3375521384692</v>
       </c>
     </row>
     <row r="5">
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.278283189673</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4661,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431.4421061205817</v>
+        <v>1015.34761180106</v>
       </c>
       <c r="C7" t="n">
-        <v>262.5059231926748</v>
+        <v>846.4114288731536</v>
       </c>
       <c r="D7" t="n">
-        <v>112.3892837803391</v>
+        <v>696.2947894608178</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>548.3816958784247</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>401.4917483805143</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621292</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641118</v>
+        <v>1417.78865577483</v>
       </c>
       <c r="Y7" t="n">
-        <v>431.4421061205817</v>
+        <v>1196.9960766313</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1197.073083428566</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C8" t="n">
-        <v>828.1105664881544</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4841,13 +4843,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>486.539881531981</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C10" t="n">
-        <v>317.6036986040741</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4963,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>935.3220115735285</v>
+        <v>1123.145505859711</v>
       </c>
       <c r="X10" t="n">
-        <v>707.3324606755111</v>
+        <v>1123.145505859711</v>
       </c>
       <c r="Y10" t="n">
-        <v>486.539881531981</v>
+        <v>1123.145505859711</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>257.7977758426685</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>116.0859446848666</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5500,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2598873597757</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
         <v>484.8112968429803</v>
@@ -5710,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433587</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E22" t="n">
-        <v>415.5933575433587</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6011,10 +6013,10 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,7 +6025,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3093.254426444653</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>2924.318243516746</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>2774.201604104411</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>2626.288510522018</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>2479.398563024107</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024107</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2392.08784073087</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2209.233006385774</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>1989.631541408715</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467153</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430193</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X25" t="n">
-        <v>3388.154264430193</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y25" t="n">
-        <v>3167.361685286663</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3860.426268812248</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3632.436717914231</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3192.420589669523</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3379.766178509233</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>3374.069054499763</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2878.328163333972</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>2878.328163333972</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3505.926126888579</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>4057.835857127866</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4481.459006622934</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679666</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>483.8760050556308</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>335.9629114732377</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>189.0729639753273</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -7011,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.9745311434712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>869.9745311434712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>719.8578917311354</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E37" t="n">
-        <v>571.9447981487423</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F37" t="n">
-        <v>425.0548506508319</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7165,19 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>962.6357307816187</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C40" t="n">
-        <v>793.6995478537118</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7363,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.284195611858</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="41">
@@ -7391,67 +7393,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2878.798005073648</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>2878.798005073648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>2728.681365661313</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661313</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2325.262835688941</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2105.661370711882</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1816.58614405608</v>
       </c>
       <c r="V43" t="n">
-        <v>3798.645769982396</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W43" t="n">
-        <v>3509.228599945435</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X43" t="n">
-        <v>3281.239049047418</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>3060.446469903888</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>59.21924749803978</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>143.8269525734169</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>249.323664908363</v>
+        <v>125.5341284403484</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>75.84421273177713</v>
       </c>
       <c r="F22" t="n">
-        <v>132.6809716109911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.4657939283481</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>12.04875628922523</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>111.4161395899837</v>
+        <v>107.0485416471246</v>
       </c>
     </row>
     <row r="29">
@@ -24844,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>58.20633287440185</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.9445005827191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>41.43328057277105</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>59.15888173022687</v>
+        <v>85.45266000108629</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>40.6433062151481</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>126.9182872993594</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>119.8635921600913</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>40.90318636666066</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125275</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125275</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.284775254</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820626</v>
       </c>
       <c r="D4" t="n">
         <v>93403.78684820636</v>
@@ -26436,7 +26438,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934827.1899855867</v>
+        <v>-934827.1899855873</v>
       </c>
       <c r="C6" t="n">
-        <v>393917.5557420061</v>
+        <v>393917.5557420059</v>
       </c>
       <c r="D6" t="n">
-        <v>393917.5557420059</v>
+        <v>393917.5557420062</v>
       </c>
       <c r="E6" t="n">
-        <v>144429.541067137</v>
+        <v>144429.5410671373</v>
       </c>
       <c r="F6" t="n">
-        <v>469842.0028744919</v>
+        <v>469842.0028744923</v>
       </c>
       <c r="G6" t="n">
-        <v>469842.002874492</v>
+        <v>469842.0028744924</v>
       </c>
       <c r="H6" t="n">
-        <v>469842.0028744921</v>
+        <v>469842.0028744923</v>
       </c>
       <c r="I6" t="n">
-        <v>469842.0028744923</v>
+        <v>469842.0028744926</v>
       </c>
       <c r="J6" t="n">
-        <v>252310.8004772147</v>
+        <v>252310.8004772148</v>
       </c>
       <c r="K6" t="n">
         <v>469842.0028744921</v>
       </c>
       <c r="L6" t="n">
+        <v>469842.0028744921</v>
+      </c>
+      <c r="M6" t="n">
+        <v>384786.9749389805</v>
+      </c>
+      <c r="N6" t="n">
         <v>469842.0028744923</v>
       </c>
-      <c r="M6" t="n">
-        <v>384786.9749389804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>469842.0028744921</v>
-      </c>
       <c r="O6" t="n">
-        <v>469842.0028744921</v>
+        <v>469842.002874492</v>
       </c>
       <c r="P6" t="n">
-        <v>469842.0028744921</v>
+        <v>469842.0028744923</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26808,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>226.4291713029153</v>
+        <v>198.0889477142659</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>14.9245634570452</v>
       </c>
       <c r="G4" t="n">
-        <v>76.14139808179516</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>319.0010639722462</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>106.001440238205</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>101.0155669718951</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>75.50340795433955</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>272.5496012734512</v>
+        <v>0.0413880906547206</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>141.1422419921995</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>240.8032171315841</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>237.3557891543622</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>147.4873481937412</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>638.4800548179295</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>687.9583686879464</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33424,7 +33426,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33494,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>314.4610577451597</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>173.3851399586646</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33974,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>200.3460366764704</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P42" t="n">
-        <v>548.8125296967492</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340048</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>94.75954470991782</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.64972152707456</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>496.3460208959112</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>545.824334765928</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>174.4792836591382</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>31.25110603664623</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37622,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>57.74979223202591</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P42" t="n">
-        <v>414.838122282419</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2126846.194968362</v>
+        <v>2122833.584954369</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9762731.939268146</v>
+        <v>9762731.939268144</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886417</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>52.90622424463611</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>130.496484565886</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.6382658783199</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>166.9920602376562</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>280.2364984178486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>90.52240030468867</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>108.2795102081113</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.6924535728259</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>133.6650819731277</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>45.71978120500688</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189098</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>22.04658882052576</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>145.6229551553997</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>160.9888698962426</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428163</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>70.58974991479204</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.32649042089646</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>81.13054509253637</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>111.5361117049702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>87.21471514852939</v>
+        <v>108.0275736005845</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.1513727793237</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>80.07147829118256</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>224.7837165195613</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>124.8808320771207</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>54.10799870228521</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>231.6225549516111</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>107.7122866515517</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,16 +4327,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993395</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>3066.187443443257</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2735.124556099686</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.355900829572</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986313</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>759.6890873082294</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C4" t="n">
-        <v>759.6890873082294</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D4" t="n">
-        <v>609.5724478958937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>609.5724478958937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4518,22 +4518,22 @@
         <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036487</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.327103036487</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="X4" t="n">
-        <v>941.3375521384692</v>
+        <v>584.5841306576262</v>
       </c>
       <c r="Y4" t="n">
-        <v>941.3375521384692</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250375</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250375</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1015.34761180106</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C7" t="n">
-        <v>846.4114288731536</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>696.2947894608178</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>548.3816958784247</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>401.4917483805143</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672848</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672848</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1645.778206672848</v>
+        <v>1274.133950373793</v>
       </c>
       <c r="X7" t="n">
-        <v>1417.78865577483</v>
+        <v>1046.144399475776</v>
       </c>
       <c r="Y7" t="n">
-        <v>1196.9960766313</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.580917301916</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>952.0937546898456</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>541.1078499002381</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4813,10 +4813,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213862</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>941.4970410294717</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1123.145505859711</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1123.145505859711</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1123.145505859711</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>572.9069687101817</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E13" t="n">
-        <v>424.9938751277886</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F13" t="n">
-        <v>424.9938751277886</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G13" t="n">
-        <v>257.7977758426685</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>116.0859446848666</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,10 +5281,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2232.8234857363</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2013.222020759241</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207407</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5539,28 +5539,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,16 +5986,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2392.08784073087</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2209.233006385774</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1989.631541408715</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1700.556314752913</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1445.871826547026</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1156.454656510065</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>928.4651056120481</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>707.672526468518</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>741.8431516380849</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>741.8431516380849</v>
       </c>
       <c r="D31" t="n">
-        <v>572.9069687101817</v>
+        <v>741.8431516380849</v>
       </c>
       <c r="E31" t="n">
-        <v>572.9069687101817</v>
+        <v>593.9300580556918</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6633,40 +6633,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>923.4916164683247</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,10 +6700,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703109</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>545.3854261579752</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>545.3854261579752</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>398.4954786600648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,13 +7195,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>888.6771326738537</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>738.560493261518</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>590.6473996791249</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>443.7574521812145</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2325.262835688941</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2105.661370711882</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1816.58614405608</v>
+        <v>1743.498903791709</v>
       </c>
       <c r="V43" t="n">
-        <v>1561.901655850193</v>
+        <v>1488.814415585822</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1199.397245548862</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>971.4076946508441</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>593.6115863900021</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>59.21924749803978</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>35.40333084624487</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>125.5341284403484</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>75.84421273177713</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.04875628922523</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>107.0485416471246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>58.20633287440185</v>
+        <v>37.39347442234677</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.43328057277105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>85.45266000108629</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>61.40075786968285</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>40.6433062151481</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>126.9182872993594</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>54.56191943763301</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>40.90318636666066</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125272</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
   </sheetData>
@@ -26319,22 +26319,22 @@
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752548</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752545</v>
@@ -26343,19 +26343,19 @@
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820626</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
         <v>93403.78684820636</v>
@@ -26432,7 +26432,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26450,7 +26450,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934827.1899855873</v>
+        <v>-934827.189985587</v>
       </c>
       <c r="C6" t="n">
         <v>393917.5557420059</v>
       </c>
       <c r="D6" t="n">
-        <v>393917.5557420062</v>
+        <v>393917.555742006</v>
       </c>
       <c r="E6" t="n">
-        <v>144429.5410671373</v>
+        <v>144082.1618127794</v>
       </c>
       <c r="F6" t="n">
-        <v>469842.0028744923</v>
+        <v>469494.6236201348</v>
       </c>
       <c r="G6" t="n">
-        <v>469842.0028744924</v>
+        <v>469494.623620136</v>
       </c>
       <c r="H6" t="n">
-        <v>469842.0028744923</v>
+        <v>469494.6236201355</v>
       </c>
       <c r="I6" t="n">
-        <v>469842.0028744926</v>
+        <v>469494.6236201353</v>
       </c>
       <c r="J6" t="n">
-        <v>252310.8004772148</v>
+        <v>251963.4212228579</v>
       </c>
       <c r="K6" t="n">
-        <v>469842.0028744921</v>
+        <v>469494.6236201352</v>
       </c>
       <c r="L6" t="n">
-        <v>469842.0028744921</v>
+        <v>469494.6236201354</v>
       </c>
       <c r="M6" t="n">
-        <v>384786.9749389805</v>
+        <v>384439.5956846233</v>
       </c>
       <c r="N6" t="n">
-        <v>469842.0028744923</v>
+        <v>469494.6236201352</v>
       </c>
       <c r="O6" t="n">
-        <v>469842.002874492</v>
+        <v>469494.6236201352</v>
       </c>
       <c r="P6" t="n">
-        <v>469842.0028744923</v>
+        <v>469494.6236201354</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>100.0350347748389</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>198.0889477142659</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>14.9245634570452</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>30.94638747377493</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>198.2808315333513</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>106.001440238205</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.50340795433955</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>178.2434881284797</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0413880906547206</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>277.2566436803257</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356961</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>240.8032171315841</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29705,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-2.443332518818138e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33265,28 +33265,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33420,13 +33420,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.586862646002</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>370.9642309107744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899036</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
@@ -37068,13 +37068,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>228.3679864663299</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122833.584954369</v>
+        <v>2124594.115257154</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9762731.939268144</v>
+        <v>9762731.939268146</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>282.6988068886417</v>
+        <v>282.6988068886412</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>57.98576519627157</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.6382658783199</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>166.9920602376562</v>
+        <v>166.9920602376571</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>11.61592966729513</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>108.2795102081113</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>133.6650819731277</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991681</v>
+        <v>220.2858449881296</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187896</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>19.91555826189098</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>113.3174219124932</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>95.12712756824752</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>145.6229551553997</v>
+        <v>181.0262860016404</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428163</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953139</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>81.13054509253637</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>108.0275736005845</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>94.64226186542921</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576179</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298978</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>224.7837165195613</v>
+        <v>228.9553704673025</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>118.431222312255</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>231.6225549516111</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>206.4399638397366</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4330,16 +4330,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4354,13 +4354,13 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
         <v>2961.784676410103</v>
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158132</v>
@@ -4421,34 +4421,34 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556436</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X4" t="n">
-        <v>584.5841306576262</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y4" t="n">
-        <v>395.0505287603335</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458458</v>
+        <v>2144.883770458459</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>934.4107598040977</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1274.133950373793</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1046.144399475776</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.3518203322459</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.14770589484</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.88200728809</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898456</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>541.1078499002381</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4816,7 +4816,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875186</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899374</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>932.6923844141636</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>711.8998052706335</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168643</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474266</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650335</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>113.9333885650335</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817747</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168612</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852257</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,13 +5354,13 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167374</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>549.6145409888043</v>
+        <v>580.8993044876747</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888043</v>
+        <v>580.8993044876747</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>580.8993044876747</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>580.8993044876747</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
         <v>1248.15024091081</v>
@@ -5451,37 +5451,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2232.8234857363</v>
+        <v>2264.108249235171</v>
       </c>
       <c r="T16" t="n">
-        <v>2013.222020759241</v>
+        <v>2044.506784258112</v>
       </c>
       <c r="U16" t="n">
-        <v>1724.146794103439</v>
+        <v>1755.43155760231</v>
       </c>
       <c r="V16" t="n">
-        <v>1469.462305897552</v>
+        <v>1500.747069396423</v>
       </c>
       <c r="W16" t="n">
-        <v>1180.045135860591</v>
+        <v>1211.329899359462</v>
       </c>
       <c r="X16" t="n">
-        <v>952.0555849625741</v>
+        <v>983.3403484614446</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.263005819044</v>
+        <v>762.5477693179145</v>
       </c>
     </row>
     <row r="17">
@@ -5494,49 +5494,49 @@
         <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398595</v>
@@ -5591,7 +5591,7 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797191</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>900.1991887469509</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380849</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C31" t="n">
-        <v>741.8431516380849</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D31" t="n">
-        <v>741.8431516380849</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E31" t="n">
-        <v>593.9300580556918</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>189.4149073564862</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611855</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611855</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683247</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="32">
@@ -6691,43 +6691,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7004,16 +7004,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1750.40682139984</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V37" t="n">
-        <v>1495.722333193953</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1206.305163156993</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="38">
@@ -7165,22 +7165,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7195,13 +7195,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
         <v>484.8112968429802</v>
@@ -7329,55 +7329,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>803.8641191832228</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1743.498903791709</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1488.814415585822</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1199.397245548862</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>971.4076946508441</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1699.462102832031</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1182.055381897053</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>961.2628027535234</v>
       </c>
     </row>
   </sheetData>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>105.2672314396016</v>
       </c>
     </row>
     <row r="14">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>50.29392045468373</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
-        <v>35.40333084624487</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194225</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>37.39347442234677</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>70.88187642683964</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>65.54986409393018</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>61.40075786968285</v>
+        <v>57.22910392194166</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>107.2784330767822</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.56191943763301</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>45.6976794840914</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125275</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840744.0319125272</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125275</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752549</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.461807356</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26432,13 +26432,13 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685498</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26447,10 +26447,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685497</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685515</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239072</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934827.189985587</v>
+        <v>-934827.1899855867</v>
       </c>
       <c r="C6" t="n">
         <v>393917.5557420059</v>
       </c>
       <c r="D6" t="n">
-        <v>393917.555742006</v>
+        <v>393917.5557420059</v>
       </c>
       <c r="E6" t="n">
-        <v>144082.1618127794</v>
+        <v>144394.8031417007</v>
       </c>
       <c r="F6" t="n">
-        <v>469494.6236201348</v>
+        <v>469807.2649490566</v>
       </c>
       <c r="G6" t="n">
-        <v>469494.623620136</v>
+        <v>469807.264949057</v>
       </c>
       <c r="H6" t="n">
-        <v>469494.6236201355</v>
+        <v>469807.2649490566</v>
       </c>
       <c r="I6" t="n">
-        <v>469494.6236201353</v>
+        <v>469807.2649490566</v>
       </c>
       <c r="J6" t="n">
-        <v>251963.4212228579</v>
+        <v>252276.0625517789</v>
       </c>
       <c r="K6" t="n">
-        <v>469494.6236201352</v>
+        <v>469807.2649490563</v>
       </c>
       <c r="L6" t="n">
-        <v>469494.6236201354</v>
+        <v>469807.2649490564</v>
       </c>
       <c r="M6" t="n">
-        <v>384439.5956846233</v>
+        <v>384752.2370135445</v>
       </c>
       <c r="N6" t="n">
-        <v>469494.6236201352</v>
+        <v>469807.2649490562</v>
       </c>
       <c r="O6" t="n">
-        <v>469494.6236201352</v>
+        <v>469807.2649490562</v>
       </c>
       <c r="P6" t="n">
-        <v>469494.6236201354</v>
+        <v>469807.2649490563</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973568</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973568</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.0350347748389</v>
+        <v>100.0350347748393</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>88.44819745029761</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.94638747377493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>198.2808315333513</v>
+        <v>198.2808315333504</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>155.6308914313327</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>178.2434881284797</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>277.2566436803257</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356961</v>
+        <v>65.92599321748332</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28535,7 +28535,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29705,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.443332518818138e-12</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,34 +31989,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
         <v>593.8732233669225</v>
@@ -32028,10 +32028,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32162,31 +32162,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043702</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899036</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243153</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902381</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
